--- a/data/AP_NAGAR_A1_ports.xlsx
+++ b/data/AP_NAGAR_A1_ports.xlsx
@@ -37,13 +37,13 @@
     <t>Sfp Serial No</t>
   </si>
   <si>
-    <t>873bbf5d-b4e7-4469-b125-558b3aeeff73</t>
-  </si>
-  <si>
-    <t>c85c46bc-8cb3-44b5-91fe-38edd869302f</t>
-  </si>
-  <si>
-    <t>A.P NAGAR</t>
+    <t>a4b151a2-e226-4094-bd19-6e4f416244e8</t>
+  </si>
+  <si>
+    <t>6ac435ff-0a3f-473a-8c24-51eb7a4dbbbf</t>
+  </si>
+  <si>
+    <t>AP NAGAR A1</t>
   </si>
   <si>
     <t>1.1</t>
@@ -52,19 +52,19 @@
     <t>1b49c00c-734e-4dd9-8e0f-c0525edd9fa1</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>2Mb Interface</t>
   </si>
   <si>
     <t>2mbps</t>
   </si>
   <si>
-    <t>e28aa001-0dad-47be-9fb4-fc6a545e5c16</t>
+    <t>427971db-1bc5-4588-ab34-f2ddd5140d7f</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>21f88858-e22c-4107-86c9-ca38163b04fe</t>
+    <t>0c0d9414-8588-4292-ba41-733b983b5f0d</t>
   </si>
   <si>
     <t>1.3</t>
@@ -79,13 +79,13 @@
     <t>1G</t>
   </si>
   <si>
-    <t>d4e79fbc-fc9c-42cf-afc7-2b743144fcbd</t>
+    <t>32b44878-eb3d-4819-94e2-a20d116965b9</t>
   </si>
   <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>a3fc1cd9-07bc-4150-b691-c9545635061b</t>
+    <t>94001891-28af-4adf-bdb0-8c196da94233</t>
   </si>
   <si>
     <t>1.5</t>
@@ -97,43 +97,43 @@
     <t>Gigabit Ethernet Port</t>
   </si>
   <si>
-    <t>9367e3e6-1a35-48ce-8fcd-0be32e230db0</t>
+    <t>731bba8f-b409-4ba8-93a9-3ae516971862</t>
   </si>
   <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>618e3e2e-7369-4f50-9533-2ded61f0300a</t>
+    <t>b10d179c-4821-4d37-ab30-a79844b96554</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>94afd3c3-ecb2-402b-8ac6-f021b91667eb</t>
+    <t>6d3f17f2-ba00-4bee-9f80-5b20b7945a96</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>dc929262-aa8b-435d-80e0-11d8d4d5c5a2</t>
+    <t>2fb3501c-dbfc-46e6-96f0-c0724919a2ac</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>65401a77-61a0-4eda-b0c9-560c81524bdb</t>
+    <t>ffbf80e2-4449-4e0b-8da5-8b3efe32af71</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>ed6ae347-306e-4a14-9ec1-493770766f8d</t>
+    <t>4c4824ab-0df6-4baf-b4d4-ad9f91fbebe1</t>
   </si>
   <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>4ff31fd5-e17e-4a53-93d7-169b1e9748fa</t>
+    <t>52848190-f51d-42bf-95cb-855f972b13cb</t>
   </si>
   <si>
     <t>2.6</t>
